--- a/Reikningshald/verkefni/Verkefni_tvíhliða bókhald_forsendur og vinnubl-1.xlsx
+++ b/Reikningshald/verkefni/Verkefni_tvíhliða bókhald_forsendur og vinnubl-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnac/Desktop/haust24/Reikningshald/verkefni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2582A-A7B3-B444-A3E6-293DFF814A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D333DB5A-D9A4-2542-8EE5-BC64618C8A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forsendur" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Forsendur!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1436,74 +1436,74 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2298,18 +2298,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="8"/>
       <c r="R2" s="91" t="s">
         <v>60</v>
@@ -2363,26 +2363,26 @@
     </row>
     <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="143"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="142"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="143"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="8"/>
       <c r="R3" s="95" t="s">
         <v>61</v>
@@ -2428,22 +2428,22 @@
     </row>
     <row r="4" spans="1:39" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="144"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="144" t="s">
+      <c r="K4" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="144"/>
+      <c r="L4" s="163"/>
       <c r="M4" s="16"/>
       <c r="R4" s="99"/>
       <c r="S4" s="4" t="s">
@@ -2651,10 +2651,10 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="144" t="s">
+      <c r="K7" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="144"/>
+      <c r="L7" s="163"/>
       <c r="M7" s="20"/>
       <c r="R7" s="99"/>
       <c r="S7" s="4" t="s">
@@ -2802,10 +2802,10 @@
       <c r="D10" s="17"/>
       <c r="E10" s="13"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="144"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="13"/>
       <c r="M10" s="28"/>
       <c r="R10" s="99"/>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="11" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="13"/>
       <c r="F11" s="30"/>
       <c r="G11" s="127"/>
@@ -2873,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="144" t="s">
+      <c r="K11" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="144"/>
+      <c r="L11" s="163"/>
       <c r="M11" s="20"/>
       <c r="R11" s="99"/>
       <c r="S11" s="4" t="s">
@@ -3054,13 +3054,13 @@
       <c r="D15" s="24"/>
       <c r="E15" s="13"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="13"/>
-      <c r="K15" s="144" t="s">
+      <c r="K15" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="144"/>
+      <c r="L15" s="163"/>
       <c r="M15" s="28"/>
       <c r="R15" s="99" t="s">
         <v>101</v>
@@ -3205,10 +3205,10 @@
       <c r="H19" s="17"/>
       <c r="I19" s="13"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="144" t="s">
+      <c r="K19" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="144"/>
+      <c r="L19" s="163"/>
       <c r="M19" s="20"/>
       <c r="R19" s="99"/>
       <c r="T19" s="90"/>
@@ -3324,10 +3324,10 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="144" t="s">
+      <c r="K23" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="144"/>
+      <c r="L23" s="163"/>
       <c r="M23" s="20"/>
       <c r="X23" s="120"/>
       <c r="Y23" s="103" t="s">
@@ -3455,14 +3455,14 @@
       <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="146"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="75"/>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B30" s="38"/>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="148"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="39"/>
       <c r="F30" s="40" t="s">
         <v>11</v>
@@ -3592,21 +3592,21 @@
       <c r="A40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="146"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B41" s="50"/>
-      <c r="C41" s="150" t="s">
+      <c r="C41" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="150"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="52"/>
       <c r="F41" s="53" t="s">
         <v>11</v>
@@ -3776,20 +3776,20 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="152"/>
-      <c r="H56" s="145" t="s">
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="151"/>
+      <c r="H56" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="146"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="154"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B57" s="55"/>
@@ -3879,40 +3879,40 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="153"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
       <c r="E61" s="63"/>
       <c r="F61" s="64"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="158"/>
+      <c r="K61" s="158"/>
       <c r="L61" s="60"/>
     </row>
     <row r="62" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="143"/>
-      <c r="F63" s="146"/>
-      <c r="H63" s="151" t="s">
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="154"/>
+      <c r="H63" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="152"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="151"/>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="157" t="s">
+      <c r="B64" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66"/>
       <c r="H64" s="67" t="s">
@@ -3986,11 +3986,11 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="159" t="s">
+      <c r="B68" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="160"/>
-      <c r="D68" s="160"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="72"/>
       <c r="F68" s="57"/>
       <c r="H68" s="73"/>
@@ -4087,11 +4087,11 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="159" t="s">
+      <c r="B74" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="160"/>
-      <c r="D74" s="160"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
       <c r="E74" s="72"/>
       <c r="F74" s="57"/>
       <c r="H74" s="4" t="s">
@@ -4168,9 +4168,9 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="161"/>
-      <c r="C78" s="147"/>
-      <c r="D78" s="147"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="76"/>
       <c r="F78" s="69"/>
       <c r="H78" s="59" t="s">
@@ -4200,21 +4200,21 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B82" s="151" t="s">
+      <c r="B82" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="152"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="150"/>
+      <c r="G82" s="151"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B83" s="38"/>
-      <c r="C83" s="148" t="s">
+      <c r="C83" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="148"/>
+      <c r="D83" s="147"/>
       <c r="E83" s="39"/>
       <c r="F83" s="40" t="s">
         <v>11</v>
@@ -4225,11 +4225,11 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B84" s="21"/>
-      <c r="C84" s="162" t="str">
+      <c r="C84" s="142" t="str">
         <f>C4</f>
         <v>Banki</v>
       </c>
-      <c r="D84" s="162"/>
+      <c r="D84" s="142"/>
       <c r="E84" s="43"/>
       <c r="F84" s="17">
         <f>C9</f>
@@ -4239,11 +4239,11 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B85" s="21"/>
-      <c r="C85" s="163" t="str">
+      <c r="C85" s="143" t="str">
         <f>C11</f>
         <v>F.FG Húsaleiga</v>
       </c>
-      <c r="D85" s="163"/>
+      <c r="D85" s="143"/>
       <c r="E85" s="45"/>
       <c r="F85" s="17">
         <f>C14</f>
@@ -4253,11 +4253,11 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B86" s="21"/>
-      <c r="C86" s="163" t="str">
+      <c r="C86" s="143" t="str">
         <f>G4</f>
         <v>FF. Innheimtar tekjur</v>
       </c>
-      <c r="D86" s="163"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="45"/>
       <c r="F86" s="17"/>
       <c r="G86" s="44">
@@ -4348,10 +4348,10 @@
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B95" s="21"/>
-      <c r="C95" s="164" t="s">
+      <c r="C95" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="164"/>
+      <c r="D95" s="144"/>
       <c r="E95" s="80"/>
       <c r="F95" s="81">
         <f>SUM(F84:F94)</f>
@@ -4363,20 +4363,33 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="161"/>
-      <c r="C96" s="147"/>
-      <c r="D96" s="147"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="146"/>
+      <c r="D96" s="146"/>
       <c r="E96" s="76"/>
       <c r="F96" s="36"/>
       <c r="G96" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="B56:F56"/>
@@ -4390,24 +4403,11 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B96:D96"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
